--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Robo1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H2">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J2">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.0215681500001</v>
+        <v>0.150539</v>
       </c>
       <c r="N2">
-        <v>22.0215681500001</v>
+        <v>0.451617</v>
       </c>
       <c r="O2">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607021</v>
       </c>
       <c r="P2">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607022</v>
       </c>
       <c r="Q2">
-        <v>89.58682096513174</v>
+        <v>0.021661959944</v>
       </c>
       <c r="R2">
-        <v>89.58682096513174</v>
+        <v>0.194957639496</v>
       </c>
       <c r="S2">
-        <v>0.5354781368844463</v>
+        <v>0.0001159738335738932</v>
       </c>
       <c r="T2">
-        <v>0.5354781368844463</v>
+        <v>0.0001159738335738933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.0681399414842</v>
+        <v>0.143896</v>
       </c>
       <c r="H3">
-        <v>4.0681399414842</v>
+        <v>0.431688</v>
       </c>
       <c r="I3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J3">
-        <v>0.8712213027132831</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8074563608038</v>
+        <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>13.8074563608038</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.3853707029238347</v>
+        <v>0.6059069138232425</v>
       </c>
       <c r="P3">
-        <v>0.3853707029238347</v>
+        <v>0.6059069138232426</v>
       </c>
       <c r="Q3">
-        <v>56.17066471168602</v>
+        <v>3.176897899456</v>
       </c>
       <c r="R3">
-        <v>56.17066471168602</v>
+        <v>28.59208109510399</v>
       </c>
       <c r="S3">
-        <v>0.3357431658288369</v>
+        <v>0.017008480729594</v>
       </c>
       <c r="T3">
-        <v>0.3357431658288369</v>
+        <v>0.017008480729594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6013279983086079</v>
+        <v>0.143896</v>
       </c>
       <c r="H4">
-        <v>0.6013279983086079</v>
+        <v>0.431688</v>
       </c>
       <c r="I4">
-        <v>0.128778697286717</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="J4">
-        <v>0.128778697286717</v>
+        <v>0.02807111181859822</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0215681500001</v>
+        <v>0.015885</v>
       </c>
       <c r="N4">
-        <v>22.0215681500001</v>
+        <v>0.047655</v>
       </c>
       <c r="O4">
-        <v>0.6146292970761654</v>
+        <v>0.0004359519167219957</v>
       </c>
       <c r="P4">
-        <v>0.6146292970761654</v>
+        <v>0.0004359519167219959</v>
       </c>
       <c r="Q4">
-        <v>13.24218549525616</v>
+        <v>0.00228578796</v>
       </c>
       <c r="R4">
-        <v>13.24218549525616</v>
+        <v>0.02057209164</v>
       </c>
       <c r="S4">
-        <v>0.07915116019171914</v>
+        <v>1.223765500183536E-05</v>
       </c>
       <c r="T4">
-        <v>0.07915116019171914</v>
+        <v>1.223765500183537E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.143896</v>
+      </c>
+      <c r="H5">
+        <v>0.431688</v>
+      </c>
+      <c r="I5">
+        <v>0.02807111181859822</v>
+      </c>
+      <c r="J5">
+        <v>0.02807111181859822</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N5">
+        <v>42.580034</v>
+      </c>
+      <c r="O5">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P5">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q5">
+        <v>2.042365524154667</v>
+      </c>
+      <c r="R5">
+        <v>18.381289717392</v>
+      </c>
+      <c r="S5">
+        <v>0.01093441960042849</v>
+      </c>
+      <c r="T5">
+        <v>0.0109344196004285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H6">
+        <v>12.831823</v>
+      </c>
+      <c r="I6">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J6">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.150539</v>
+      </c>
+      <c r="N6">
+        <v>0.451617</v>
+      </c>
+      <c r="O6">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P6">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q6">
+        <v>0.6438966008656667</v>
+      </c>
+      <c r="R6">
+        <v>5.795069407791001</v>
+      </c>
+      <c r="S6">
+        <v>0.003447294585560996</v>
+      </c>
+      <c r="T6">
+        <v>0.003447294585560997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H7">
+        <v>12.831823</v>
+      </c>
+      <c r="I7">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J7">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.077736</v>
+      </c>
+      <c r="N7">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P7">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q7">
+        <v>94.43253353090932</v>
+      </c>
+      <c r="R7">
+        <v>849.8928017781839</v>
+      </c>
+      <c r="S7">
+        <v>0.5055730393734851</v>
+      </c>
+      <c r="T7">
+        <v>0.5055730393734852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H8">
+        <v>12.831823</v>
+      </c>
+      <c r="I8">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J8">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.015885</v>
+      </c>
+      <c r="N8">
+        <v>0.047655</v>
+      </c>
+      <c r="O8">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P8">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q8">
+        <v>0.067944502785</v>
+      </c>
+      <c r="R8">
+        <v>0.6115005250650001</v>
+      </c>
+      <c r="S8">
+        <v>0.0003637613807162026</v>
+      </c>
+      <c r="T8">
+        <v>0.0003637613807162027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.277274333333334</v>
+      </c>
+      <c r="H9">
+        <v>12.831823</v>
+      </c>
+      <c r="I9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="J9">
+        <v>0.8344071140950421</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N9">
+        <v>42.580034</v>
+      </c>
+      <c r="O9">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P9">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q9">
+        <v>60.7088288468869</v>
+      </c>
+      <c r="R9">
+        <v>546.3794596219821</v>
+      </c>
+      <c r="S9">
+        <v>0.3250230187552797</v>
+      </c>
+      <c r="T9">
+        <v>0.3250230187552797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.114861</v>
+      </c>
+      <c r="I10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J10">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.150539</v>
+      </c>
+      <c r="N10">
+        <v>0.451617</v>
+      </c>
+      <c r="O10">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P10">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q10">
+        <v>0.1061230200263333</v>
+      </c>
+      <c r="R10">
+        <v>0.955107180237</v>
+      </c>
+      <c r="S10">
+        <v>0.0005681615834721313</v>
+      </c>
+      <c r="T10">
+        <v>0.0005681615834721315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.6013279983086079</v>
-      </c>
-      <c r="H5">
-        <v>0.6013279983086079</v>
-      </c>
-      <c r="I5">
-        <v>0.128778697286717</v>
-      </c>
-      <c r="J5">
-        <v>0.128778697286717</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.8074563608038</v>
-      </c>
-      <c r="N5">
-        <v>13.8074563608038</v>
-      </c>
-      <c r="O5">
-        <v>0.3853707029238347</v>
-      </c>
-      <c r="P5">
-        <v>0.3853707029238347</v>
-      </c>
-      <c r="Q5">
-        <v>8.302810095175605</v>
-      </c>
-      <c r="R5">
-        <v>8.302810095175605</v>
-      </c>
-      <c r="S5">
-        <v>0.04962753709499784</v>
-      </c>
-      <c r="T5">
-        <v>0.04962753709499784</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.114861</v>
+      </c>
+      <c r="I11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J11">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.077736</v>
+      </c>
+      <c r="N11">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P11">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q11">
+        <v>15.56378094489866</v>
+      </c>
+      <c r="R11">
+        <v>140.074028504088</v>
+      </c>
+      <c r="S11">
+        <v>0.08332539372016337</v>
+      </c>
+      <c r="T11">
+        <v>0.0833253937201634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.114861</v>
+      </c>
+      <c r="I12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J12">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015885</v>
+      </c>
+      <c r="N12">
+        <v>0.047655</v>
+      </c>
+      <c r="O12">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P12">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q12">
+        <v>0.011198188995</v>
+      </c>
+      <c r="R12">
+        <v>0.100783700955</v>
+      </c>
+      <c r="S12">
+        <v>5.99528810039578E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.995288100395783E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7049536666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.114861</v>
+      </c>
+      <c r="I13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="J13">
+        <v>0.1375217740863597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N13">
+        <v>42.580034</v>
+      </c>
+      <c r="O13">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P13">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q13">
+        <v>10.00565036503044</v>
+      </c>
+      <c r="R13">
+        <v>90.050853285274</v>
+      </c>
+      <c r="S13">
+        <v>0.05356826590172023</v>
+      </c>
+      <c r="T13">
+        <v>0.05356826590172025</v>
       </c>
     </row>
   </sheetData>
